--- a/progress_totale.xlsx
+++ b/progress_totale.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
   <si>
     <t>Chapter</t>
   </si>
@@ -59,6 +59,39 @@
   <si>
     <t>Simulation avancement vérifié</t>
   </si>
+  <si>
+    <t>Etape</t>
+  </si>
+  <si>
+    <t>Choisir le simulateur: WorkflowSim</t>
+  </si>
+  <si>
+    <t>Avancement</t>
+  </si>
+  <si>
+    <t>Coefficient</t>
+  </si>
+  <si>
+    <t>Apprendre le simulateur et lire les readme...</t>
+  </si>
+  <si>
+    <t>Concevoir l'interface</t>
+  </si>
+  <si>
+    <t>Implémanter l'algorithme EViMA</t>
+  </si>
+  <si>
+    <t>Implémanter notre solution</t>
+  </si>
+  <si>
+    <t>Faire des tests</t>
+  </si>
+  <si>
+    <t>Comparer les résultats</t>
+  </si>
+  <si>
+    <t>Résultat</t>
+  </si>
 </sst>
 </file>
 
@@ -73,7 +106,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -101,6 +134,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF80FE86"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -143,7 +194,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -154,11 +205,51 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="50">
+  <dxfs count="54">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -701,20 +792,26 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>Totale!$B$2:$B$5</c:f>
+              <c:f>Totale!$B$2:$B$7</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
+                  <c:v>44978</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>45007</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>45018</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>45024</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
+                  <c:v>45026</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>45036</c:v>
                 </c:pt>
               </c:numCache>
@@ -722,20 +819,26 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Totale!$D$2:$D$5</c:f>
+              <c:f>Totale!$D$2:$D$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>50</c:v>
                 </c:pt>
               </c:numCache>
@@ -758,20 +861,26 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>Totale!$B$2:$B$5</c:f>
+              <c:f>Totale!$B$2:$B$7</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
+                  <c:v>44978</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>45007</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>45018</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>45024</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
+                  <c:v>45026</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>45036</c:v>
                 </c:pt>
               </c:numCache>
@@ -779,20 +888,26 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Totale!$C$2:$C$5</c:f>
+              <c:f>Totale!$C$2:$C$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>16</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>20</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>50</c:v>
                 </c:pt>
               </c:numCache>
@@ -807,11 +922,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="108454272"/>
-        <c:axId val="108457344"/>
+        <c:axId val="107590400"/>
+        <c:axId val="107591936"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="108454272"/>
+        <c:axId val="107590400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -821,14 +936,14 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="108457344"/>
+        <c:crossAx val="107591936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="108457344"/>
+        <c:axId val="107591936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -839,7 +954,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="108454272"/>
+        <c:crossAx val="107590400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -875,6 +990,10 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -897,20 +1016,26 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>Totale!$I$2:$I$5</c:f>
+              <c:f>Totale!$I$2:$I$7</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
+                  <c:v>44978</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>45007</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>45018</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>45024</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
+                  <c:v>45026</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>45036</c:v>
                 </c:pt>
               </c:numCache>
@@ -918,20 +1043,26 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Totale!$K$2:$K$5</c:f>
+              <c:f>Totale!$K$2:$K$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>7.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
@@ -954,20 +1085,26 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>Totale!$I$2:$I$5</c:f>
+              <c:f>Totale!$I$2:$I$7</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
+                  <c:v>44978</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>45007</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>45018</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>45024</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
+                  <c:v>45026</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>45036</c:v>
                 </c:pt>
               </c:numCache>
@@ -975,10 +1112,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Totale!$J$2:$J$5</c:f>
+              <c:f>Totale!$J$2:$J$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -989,6 +1126,12 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
@@ -1003,28 +1146,28 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="64828928"/>
-        <c:axId val="64830464"/>
+        <c:axId val="108411904"/>
+        <c:axId val="108425984"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="64828928"/>
+        <c:axId val="108411904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="64830464"/>
+        <c:crossAx val="108425984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="64830464"/>
+        <c:axId val="108425984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1032,16 +1175,16 @@
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="64828928"/>
+        <c:crossAx val="108411904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
+      <c:legendPos val="b"/>
       <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
@@ -1087,6 +1230,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1239,11 +1383,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="72265728"/>
-        <c:axId val="72267264"/>
+        <c:axId val="108853120"/>
+        <c:axId val="108854656"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="72265728"/>
+        <c:axId val="108853120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1253,7 +1397,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="72267264"/>
+        <c:crossAx val="108854656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1261,7 +1405,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="72267264"/>
+        <c:axId val="108854656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1284,19 +1428,21 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="72265728"/>
+        <c:crossAx val="108853120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1326,6 +1472,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1413,7 +1560,7 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>4</c:v>
@@ -1490,6 +1637,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1532,7 +1680,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>28</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>50</c:v>
@@ -1550,11 +1698,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="71844224"/>
-        <c:axId val="71845760"/>
+        <c:axId val="109152512"/>
+        <c:axId val="109445120"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="71844224"/>
+        <c:axId val="109152512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1563,7 +1711,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="71845760"/>
+        <c:crossAx val="109445120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1571,7 +1719,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="71845760"/>
+        <c:axId val="109445120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1582,7 +1730,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="71844224"/>
+        <c:crossAx val="109152512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1629,6 +1777,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1708,7 +1857,7 @@
                   <c:v>66.666666666666657</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>60</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>100</c:v>
@@ -1760,7 +1909,7 @@
                   <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>40</c:v>
+                  <c:v>46.666666666666664</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>100</c:v>
@@ -1787,11 +1936,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="71887104"/>
-        <c:axId val="71888896"/>
+        <c:axId val="109478656"/>
+        <c:axId val="109480192"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="71887104"/>
+        <c:axId val="109478656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1801,7 +1950,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="71888896"/>
+        <c:crossAx val="109480192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1809,7 +1958,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="71888896"/>
+        <c:axId val="109480192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1832,19 +1981,21 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="71887104"/>
+        <c:crossAx val="109478656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1865,13 +2016,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>133349</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1895,13 +2046,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>161924</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>9524</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>114299</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2338,10 +2489,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="I1:K5"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2379,19 +2530,19 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B2" s="9">
-        <v>45007</v>
+        <v>44978</v>
       </c>
       <c r="C2" s="4">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="D2" s="4">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="I2" s="9">
-        <v>45007</v>
+        <v>44978</v>
       </c>
       <c r="J2" s="4">
         <v>0</v>
@@ -2402,68 +2553,114 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B3" s="9">
-        <v>45018</v>
+        <v>45007</v>
       </c>
       <c r="C3" s="4">
         <v>16</v>
       </c>
       <c r="D3" s="4">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="I3" s="9">
-        <v>45018</v>
+        <v>45007</v>
       </c>
       <c r="J3" s="4">
         <v>0</v>
       </c>
       <c r="K3" s="4">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" s="9">
-        <v>45024</v>
+        <v>45018</v>
       </c>
       <c r="C4" s="4">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D4" s="4">
         <v>28</v>
       </c>
       <c r="I4" s="9">
-        <v>45024</v>
+        <v>45018</v>
       </c>
       <c r="J4" s="4">
         <v>0</v>
       </c>
       <c r="K4" s="4">
-        <v>0</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
+      <c r="A5" s="4">
+        <v>12</v>
+      </c>
       <c r="B5" s="9">
+        <v>45024</v>
+      </c>
+      <c r="C5" s="4">
+        <v>20</v>
+      </c>
+      <c r="D5" s="4">
+        <v>29</v>
+      </c>
+      <c r="I5" s="9">
+        <v>45024</v>
+      </c>
+      <c r="J5" s="4">
+        <v>0</v>
+      </c>
+      <c r="K5" s="4">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>13</v>
+      </c>
+      <c r="B6" s="9">
+        <v>45026</v>
+      </c>
+      <c r="C6" s="4">
+        <v>25</v>
+      </c>
+      <c r="D6" s="4">
+        <v>32</v>
+      </c>
+      <c r="I6" s="9">
+        <v>45026</v>
+      </c>
+      <c r="J6" s="4">
+        <v>0</v>
+      </c>
+      <c r="K6" s="4">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+      <c r="B7" s="9">
         <v>45036</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C7" s="4">
         <v>50</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D7" s="4">
         <v>50</v>
       </c>
-      <c r="I5" s="9">
+      <c r="I7" s="9">
         <v>45036</v>
       </c>
-      <c r="J5" s="4">
+      <c r="J7" s="4">
         <v>100</v>
       </c>
-      <c r="K5" s="4">
+      <c r="K7" s="4">
         <v>100</v>
       </c>
     </row>
@@ -2478,7 +2675,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2626,19 +2823,19 @@
         <v>15</v>
       </c>
       <c r="D6" s="4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F6" s="5">
         <f t="shared" si="1"/>
-        <v>40</v>
+        <v>46.666666666666664</v>
       </c>
       <c r="G6" s="5">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="H6" s="5">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>23.333333333333336</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -2768,19 +2965,19 @@
       </c>
       <c r="D12" s="4">
         <f>SUM(D2:D10)</f>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F12" s="5">
         <f>D12/C12*100</f>
-        <v>50.909090909090907</v>
+        <v>52.72727272727272</v>
       </c>
       <c r="G12" s="5">
         <f>D12/B12*100</f>
-        <v>70</v>
+        <v>72.5</v>
       </c>
       <c r="H12" s="5">
         <f t="shared" si="2"/>
-        <v>19.090909090909093</v>
+        <v>19.77272727272728</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -2790,164 +2987,164 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G2:G10">
-    <cfRule type="cellIs" dxfId="49" priority="96" operator="lessThan">
+    <cfRule type="cellIs" dxfId="53" priority="96" operator="lessThan">
       <formula>30</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="97" operator="lessThan">
+    <cfRule type="cellIs" dxfId="52" priority="97" operator="lessThan">
       <formula>50</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="47" priority="98" operator="lessThan">
+    <cfRule type="cellIs" dxfId="51" priority="98" operator="lessThan">
       <formula>80</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="99" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="50" priority="99" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="100" operator="lessThan">
+    <cfRule type="cellIs" dxfId="49" priority="100" operator="lessThan">
       <formula>39</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="101" operator="lessThan">
+    <cfRule type="cellIs" dxfId="48" priority="101" operator="lessThan">
       <formula>40</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="102" operator="lessThan">
+    <cfRule type="cellIs" dxfId="47" priority="102" operator="lessThan">
       <formula>50</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="103" operator="lessThan">
+    <cfRule type="cellIs" dxfId="46" priority="103" operator="lessThan">
       <formula>40</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="104" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="45" priority="104" operator="greaterThan">
       <formula>80</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F10">
-    <cfRule type="cellIs" dxfId="40" priority="42" operator="lessThan">
+    <cfRule type="cellIs" dxfId="44" priority="42" operator="lessThan">
       <formula>30</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="43" operator="lessThan">
+    <cfRule type="cellIs" dxfId="43" priority="43" operator="lessThan">
       <formula>50</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="44" operator="lessThan">
+    <cfRule type="cellIs" dxfId="42" priority="44" operator="lessThan">
       <formula>80</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="45" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="41" priority="45" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="46" operator="lessThan">
+    <cfRule type="cellIs" dxfId="40" priority="46" operator="lessThan">
       <formula>39</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="47" operator="lessThan">
+    <cfRule type="cellIs" dxfId="39" priority="47" operator="lessThan">
       <formula>40</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="48" operator="lessThan">
+    <cfRule type="cellIs" dxfId="38" priority="48" operator="lessThan">
       <formula>50</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="49" operator="lessThan">
+    <cfRule type="cellIs" dxfId="37" priority="49" operator="lessThan">
       <formula>40</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="50" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="36" priority="50" operator="greaterThan">
       <formula>80</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12">
-    <cfRule type="cellIs" dxfId="31" priority="24" operator="lessThan">
+    <cfRule type="cellIs" dxfId="35" priority="24" operator="lessThan">
       <formula>30</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="25" operator="lessThan">
+    <cfRule type="cellIs" dxfId="34" priority="25" operator="lessThan">
       <formula>50</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="26" operator="lessThan">
+    <cfRule type="cellIs" dxfId="33" priority="26" operator="lessThan">
       <formula>80</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="27" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="32" priority="27" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="28" operator="lessThan">
+    <cfRule type="cellIs" dxfId="31" priority="28" operator="lessThan">
       <formula>39</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="29" operator="lessThan">
+    <cfRule type="cellIs" dxfId="30" priority="29" operator="lessThan">
       <formula>40</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="30" operator="lessThan">
+    <cfRule type="cellIs" dxfId="29" priority="30" operator="lessThan">
       <formula>50</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="31" operator="lessThan">
+    <cfRule type="cellIs" dxfId="28" priority="31" operator="lessThan">
       <formula>40</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="32" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="27" priority="32" operator="greaterThan">
       <formula>80</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12">
-    <cfRule type="cellIs" dxfId="22" priority="51" operator="lessThan">
+    <cfRule type="cellIs" dxfId="26" priority="51" operator="lessThan">
       <formula>30</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="52" operator="lessThan">
+    <cfRule type="cellIs" dxfId="25" priority="52" operator="lessThan">
       <formula>50</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="53" operator="lessThan">
+    <cfRule type="cellIs" dxfId="24" priority="53" operator="lessThan">
       <formula>80</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="54" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="23" priority="54" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="55" operator="lessThan">
+    <cfRule type="cellIs" dxfId="22" priority="55" operator="lessThan">
       <formula>39</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="56" operator="lessThan">
+    <cfRule type="cellIs" dxfId="21" priority="56" operator="lessThan">
       <formula>40</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="57" operator="lessThan">
+    <cfRule type="cellIs" dxfId="20" priority="57" operator="lessThan">
       <formula>50</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="58" operator="lessThan">
+    <cfRule type="cellIs" dxfId="19" priority="58" operator="lessThan">
       <formula>40</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="59" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="18" priority="59" operator="greaterThan">
       <formula>80</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H10 H12">
-    <cfRule type="cellIs" dxfId="13" priority="15" operator="lessThan">
+    <cfRule type="cellIs" dxfId="17" priority="15" operator="lessThan">
       <formula>30</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="16" operator="lessThan">
+    <cfRule type="cellIs" dxfId="16" priority="16" operator="lessThan">
       <formula>50</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="17" operator="lessThan">
+    <cfRule type="cellIs" dxfId="15" priority="17" operator="lessThan">
       <formula>80</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="18" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="14" priority="18" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="19" operator="lessThan">
+    <cfRule type="cellIs" dxfId="13" priority="19" operator="lessThan">
       <formula>39</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="20" operator="lessThan">
+    <cfRule type="cellIs" dxfId="12" priority="20" operator="lessThan">
       <formula>40</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="21" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="21" operator="lessThan">
       <formula>50</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="22" operator="lessThan">
+    <cfRule type="cellIs" dxfId="10" priority="22" operator="lessThan">
       <formula>40</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="23" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="9" priority="23" operator="greaterThan">
       <formula>80</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H10 H12">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="8" priority="1" operator="greaterThan">
       <formula>20</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="7" priority="2" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="6" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="5" priority="4" operator="greaterThan">
       <formula>-1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="greaterThan">
       <formula>20</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2959,12 +3156,167 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="41.140625" customWidth="1"/>
+    <col min="2" max="4" width="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="4">
+        <v>5</v>
+      </c>
+      <c r="C2" s="4">
+        <v>100</v>
+      </c>
+      <c r="D2" s="4">
+        <f>C2*B2/100</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="4">
+        <v>5</v>
+      </c>
+      <c r="C3" s="4">
+        <v>50</v>
+      </c>
+      <c r="D3" s="4">
+        <f t="shared" ref="D3:D8" si="0">C3*B3/100</f>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="4">
+        <v>10</v>
+      </c>
+      <c r="C4" s="4">
+        <v>10</v>
+      </c>
+      <c r="D4" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="4">
+        <v>40</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0</v>
+      </c>
+      <c r="D5" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="4">
+        <v>20</v>
+      </c>
+      <c r="C6" s="4">
+        <v>0</v>
+      </c>
+      <c r="D6" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="4">
+        <v>10</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0</v>
+      </c>
+      <c r="D7" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="4">
+        <v>10</v>
+      </c>
+      <c r="C8" s="4">
+        <v>0</v>
+      </c>
+      <c r="D8" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" s="1" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="4">
+        <f>SUM(B2:B8)</f>
+        <v>100</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4">
+        <f t="shared" ref="D10" si="1">SUM(D2:D8)</f>
+        <v>8.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="C2:C8">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="greaterThan">
+      <formula>80</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="greaterThan">
+      <formula>60</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="greaterThan">
+      <formula>30</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="greaterThan">
+      <formula>-1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/progress_totale.xlsx
+++ b/progress_totale.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -9,14 +9,17 @@
   <sheets>
     <sheet name="Totale" sheetId="2" r:id="rId1"/>
     <sheet name="Memoire" sheetId="1" r:id="rId2"/>
-    <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
+    <sheet name="Experimentation" sheetId="3" r:id="rId3"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId4"/>
+  </externalReferences>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
   <si>
     <t>Chapter</t>
   </si>
@@ -92,6 +95,9 @@
   <si>
     <t>Résultat</t>
   </si>
+  <si>
+    <t>Implémanter l'interface</t>
+  </si>
 </sst>
 </file>
 
@@ -106,7 +112,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -155,6 +161,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -194,7 +212,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -203,16 +221,58 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="54">
+  <dxfs count="58">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -836,7 +896,7 @@
                   <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>32</c:v>
+                  <c:v>32.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>50</c:v>
@@ -905,7 +965,7 @@
                   <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>25</c:v>
+                  <c:v>25.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>50</c:v>
@@ -922,11 +982,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="107590400"/>
-        <c:axId val="107591936"/>
+        <c:axId val="102814464"/>
+        <c:axId val="102816000"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="107590400"/>
+        <c:axId val="102814464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -936,14 +996,14 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="107591936"/>
+        <c:crossAx val="102816000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="107591936"/>
+        <c:axId val="102816000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -954,7 +1014,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="107590400"/>
+        <c:crossAx val="102814464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1060,7 +1120,7 @@
                   <c:v>7.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.5</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>100</c:v>
@@ -1129,7 +1189,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>7.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>100</c:v>
@@ -1146,11 +1206,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="108411904"/>
-        <c:axId val="108425984"/>
+        <c:axId val="102853632"/>
+        <c:axId val="102867712"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="108411904"/>
+        <c:axId val="102853632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1160,14 +1220,14 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="108425984"/>
+        <c:crossAx val="102867712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="108425984"/>
+        <c:axId val="102867712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1178,7 +1238,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="108411904"/>
+        <c:crossAx val="102853632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1201,263 +1261,6 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="fr-FR"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="110"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="10"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="fr-FR"/>
-              <a:t>Pourcentage avancement brut/chapitre</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Memoire!$G$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Max pourcentage</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>Memoire!$A$2:$A$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.0999999999999996</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4.3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.4000000000000004</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>7</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numLit>
-              <c:formatCode>General</c:formatCode>
-              <c:ptCount val="9"/>
-              <c:pt idx="0">
-                <c:v>0</c:v>
-              </c:pt>
-              <c:pt idx="1">
-                <c:v>100</c:v>
-              </c:pt>
-              <c:pt idx="2">
-                <c:v>100</c:v>
-              </c:pt>
-              <c:pt idx="3">
-                <c:v>67</c:v>
-              </c:pt>
-              <c:pt idx="4">
-                <c:v>0</c:v>
-              </c:pt>
-              <c:pt idx="5">
-                <c:v>100</c:v>
-              </c:pt>
-              <c:pt idx="6">
-                <c:v>0</c:v>
-              </c:pt>
-              <c:pt idx="7">
-                <c:v>67</c:v>
-              </c:pt>
-              <c:pt idx="8">
-                <c:v>0</c:v>
-              </c:pt>
-            </c:numLit>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Memoire!$F$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Min pourcentage</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numLit>
-              <c:formatCode>General</c:formatCode>
-              <c:ptCount val="9"/>
-              <c:pt idx="0">
-                <c:v>0</c:v>
-              </c:pt>
-              <c:pt idx="1">
-                <c:v>100</c:v>
-              </c:pt>
-              <c:pt idx="2">
-                <c:v>100</c:v>
-              </c:pt>
-              <c:pt idx="3">
-                <c:v>40</c:v>
-              </c:pt>
-              <c:pt idx="4">
-                <c:v>0</c:v>
-              </c:pt>
-              <c:pt idx="5">
-                <c:v>100</c:v>
-              </c:pt>
-              <c:pt idx="6">
-                <c:v>0</c:v>
-              </c:pt>
-              <c:pt idx="7">
-                <c:v>36</c:v>
-              </c:pt>
-              <c:pt idx="8">
-                <c:v>0</c:v>
-              </c:pt>
-            </c:numLit>
-          </c:val>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="108853120"/>
-        <c:axId val="108854656"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="108853120"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="108854656"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="108854656"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="fr-FR"/>
-                  <a:t>Pourcentage</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="108853120"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="zero"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
@@ -1566,7 +1369,7 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2</c:v>
+                  <c:v>5.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>4</c:v>
@@ -1602,7 +1405,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
@@ -1680,7 +1483,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>29</c:v>
+                  <c:v>32.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>50</c:v>
@@ -1698,11 +1501,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="109152512"/>
-        <c:axId val="109445120"/>
+        <c:axId val="102976896"/>
+        <c:axId val="103003264"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="109152512"/>
+        <c:axId val="102976896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1711,7 +1514,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="109445120"/>
+        <c:crossAx val="103003264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1719,7 +1522,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="109445120"/>
+        <c:axId val="103003264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1730,7 +1533,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="109152512"/>
+        <c:crossAx val="102976896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1747,7 +1550,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
@@ -1863,7 +1666,7 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>40</c:v>
+                  <c:v>78.571428571428569</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>66.666666666666657</c:v>
@@ -1915,10 +1718,10 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>28.571428571428569</c:v>
+                  <c:v>55.000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>36.363636363636367</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -1936,11 +1739,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="109478656"/>
-        <c:axId val="109480192"/>
+        <c:axId val="103017472"/>
+        <c:axId val="105788160"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="109478656"/>
+        <c:axId val="103017472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1950,7 +1753,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="109480192"/>
+        <c:crossAx val="105788160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1958,7 +1761,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="109480192"/>
+        <c:axId val="105788160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1988,7 +1791,264 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="109478656"/>
+        <c:crossAx val="103017472"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="110"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="10"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-FR"/>
+              <a:t>Pourcentage avancement brut/chapitre</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'[1]Feuil1 (2)'!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Max pourcentage</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'[1]Feuil1 (2)'!$A$2:$A$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="9"/>
+              <c:pt idx="0">
+                <c:v>0</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>100</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>100</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>67</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>0</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>100</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>79</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>67</c:v>
+              </c:pt>
+              <c:pt idx="8">
+                <c:v>0</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'[1]Feuil1 (2)'!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Min pourcentage</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="9"/>
+              <c:pt idx="0">
+                <c:v>0</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>100</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>100</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>40</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>0</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>100</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>55</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>36</c:v>
+              </c:pt>
+              <c:pt idx="8">
+                <c:v>0</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="105822464"/>
+        <c:axId val="105832448"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="105822464"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="105832448"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="105832448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>Pourcentage</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="105822464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2079,36 +2139,6 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Graphique 5"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
       <xdr:row>13</xdr:row>
@@ -2131,7 +2161,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2161,7 +2191,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2193,6 +2223,38 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>180976</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Graphique 6"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
@@ -2200,6 +2262,82 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Feuil1"/>
+      <sheetName val="Feuil2"/>
+      <sheetName val="Feuil3"/>
+      <sheetName val="Feuil1 (2)"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3">
+        <row r="1">
+          <cell r="D1" t="str">
+            <v>Done</v>
+          </cell>
+          <cell r="F1" t="str">
+            <v>Min pourcentage</v>
+          </cell>
+          <cell r="G1" t="str">
+            <v>Max pourcentage</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="A2">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5">
+            <v>4.0999999999999996</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6">
+            <v>4.3</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7">
+            <v>4.4000000000000004</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10">
+            <v>7</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2492,7 +2630,7 @@
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2532,7 +2670,7 @@
       <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="9">
+      <c r="B2" s="8">
         <v>44978</v>
       </c>
       <c r="C2" s="4">
@@ -2541,7 +2679,7 @@
       <c r="D2" s="4">
         <v>0</v>
       </c>
-      <c r="I2" s="9">
+      <c r="I2" s="8">
         <v>44978</v>
       </c>
       <c r="J2" s="4">
@@ -2555,7 +2693,7 @@
       <c r="A3" s="4">
         <v>9</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="8">
         <v>45007</v>
       </c>
       <c r="C3" s="4">
@@ -2564,7 +2702,7 @@
       <c r="D3" s="4">
         <v>16</v>
       </c>
-      <c r="I3" s="9">
+      <c r="I3" s="8">
         <v>45007</v>
       </c>
       <c r="J3" s="4">
@@ -2578,7 +2716,7 @@
       <c r="A4" s="4">
         <v>11</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="8">
         <v>45018</v>
       </c>
       <c r="C4" s="4">
@@ -2587,7 +2725,7 @@
       <c r="D4" s="4">
         <v>28</v>
       </c>
-      <c r="I4" s="9">
+      <c r="I4" s="8">
         <v>45018</v>
       </c>
       <c r="J4" s="4">
@@ -2601,7 +2739,7 @@
       <c r="A5" s="4">
         <v>12</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="8">
         <v>45024</v>
       </c>
       <c r="C5" s="4">
@@ -2610,7 +2748,7 @@
       <c r="D5" s="4">
         <v>29</v>
       </c>
-      <c r="I5" s="9">
+      <c r="I5" s="8">
         <v>45024</v>
       </c>
       <c r="J5" s="4">
@@ -2624,28 +2762,28 @@
       <c r="A6" s="4">
         <v>13</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="8">
         <v>45026</v>
       </c>
       <c r="C6" s="4">
-        <v>25</v>
+        <v>25.5</v>
       </c>
       <c r="D6" s="4">
-        <v>32</v>
-      </c>
-      <c r="I6" s="9">
+        <v>32.5</v>
+      </c>
+      <c r="I6" s="8">
         <v>45026</v>
       </c>
       <c r="J6" s="4">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="K6" s="4">
-        <v>8.5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
-      <c r="B7" s="9">
+      <c r="B7" s="8">
         <v>45036</v>
       </c>
       <c r="C7" s="4">
@@ -2654,7 +2792,7 @@
       <c r="D7" s="4">
         <v>50</v>
       </c>
-      <c r="I7" s="9">
+      <c r="I7" s="8">
         <v>45036</v>
       </c>
       <c r="J7" s="4">
@@ -2672,10 +2810,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2683,9 +2821,10 @@
     <col min="5" max="5" width="0.85546875" style="1" customWidth="1"/>
     <col min="6" max="7" width="18.28515625" customWidth="1"/>
     <col min="8" max="8" width="18.42578125" customWidth="1"/>
+    <col min="9" max="19" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2708,7 +2847,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -2734,7 +2873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>2</v>
       </c>
@@ -2760,7 +2899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>3</v>
       </c>
@@ -2786,8 +2925,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+    <row r="5" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="13">
         <v>4.0999999999999996</v>
       </c>
       <c r="B5" s="4">
@@ -2812,8 +2951,8 @@
         <v>26.666666666666657</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+    <row r="6" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="13">
         <v>4.3</v>
       </c>
       <c r="B6" s="4">
@@ -2826,11 +2965,11 @@
         <v>7</v>
       </c>
       <c r="F6" s="5">
-        <f t="shared" si="1"/>
+        <f>D6/C6*100</f>
         <v>46.666666666666664</v>
       </c>
       <c r="G6" s="5">
-        <f t="shared" si="0"/>
+        <f>D6/B6*100</f>
         <v>70</v>
       </c>
       <c r="H6" s="5">
@@ -2838,7 +2977,7 @@
         <v>23.333333333333336</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>4.4000000000000004</v>
       </c>
@@ -2864,49 +3003,48 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+    <row r="8" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="12">
         <v>5</v>
       </c>
       <c r="B8" s="4">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C8" s="4">
-        <v>7</v>
-      </c>
-      <c r="D8" s="4">
-        <f>2-0</f>
-        <v>2</v>
+        <v>10</v>
+      </c>
+      <c r="D8" s="14">
+        <v>5.5</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" si="1"/>
-        <v>28.571428571428569</v>
+        <v>55.000000000000007</v>
       </c>
       <c r="G8" s="5">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>78.571428571428569</v>
       </c>
       <c r="H8" s="5">
         <f t="shared" si="2"/>
-        <v>11.428571428571431</v>
+        <v>23.571428571428562</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
+    <row r="9" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="13">
         <v>6</v>
       </c>
       <c r="B9" s="4">
         <v>6</v>
       </c>
       <c r="C9" s="4">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D9" s="4">
         <v>4</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" si="1"/>
-        <v>36.363636363636367</v>
+        <v>40</v>
       </c>
       <c r="G9" s="5">
         <f t="shared" si="0"/>
@@ -2914,10 +3052,10 @@
       </c>
       <c r="H9" s="5">
         <f t="shared" si="2"/>
-        <v>30.30303030303029</v>
+        <v>26.666666666666657</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>7</v>
       </c>
@@ -2951,200 +3089,212 @@
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B12" s="4">
         <f>SUM(B2:B10)</f>
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C12" s="4">
         <f>SUM(C2:C10)</f>
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D12" s="4">
         <f>SUM(D2:D10)</f>
-        <v>29</v>
+        <v>32.5</v>
       </c>
       <c r="F12" s="5">
         <f>D12/C12*100</f>
-        <v>52.72727272727272</v>
+        <v>57.017543859649123</v>
       </c>
       <c r="G12" s="5">
         <f>D12/B12*100</f>
-        <v>72.5</v>
+        <v>77.38095238095238</v>
       </c>
       <c r="H12" s="5">
         <f t="shared" si="2"/>
-        <v>19.77272727272728</v>
+        <v>20.363408521303256</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D13" s="8">
+    <row r="13" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D13" s="15">
         <v>50</v>
       </c>
     </row>
+    <row r="14" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="17" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="19" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="20" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="21" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="22" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="23" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="24" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="25" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <conditionalFormatting sqref="G2:G10">
-    <cfRule type="cellIs" dxfId="53" priority="96" operator="lessThan">
+    <cfRule type="cellIs" dxfId="57" priority="42" operator="lessThan">
       <formula>30</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="97" operator="lessThan">
+    <cfRule type="cellIs" dxfId="56" priority="43" operator="lessThan">
       <formula>50</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="98" operator="lessThan">
+    <cfRule type="cellIs" dxfId="55" priority="44" operator="lessThan">
       <formula>80</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="99" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="54" priority="45" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="100" operator="lessThan">
+    <cfRule type="cellIs" dxfId="53" priority="46" operator="lessThan">
       <formula>39</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="101" operator="lessThan">
+    <cfRule type="cellIs" dxfId="52" priority="47" operator="lessThan">
       <formula>40</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="47" priority="102" operator="lessThan">
+    <cfRule type="cellIs" dxfId="51" priority="48" operator="lessThan">
       <formula>50</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="103" operator="lessThan">
+    <cfRule type="cellIs" dxfId="50" priority="49" operator="lessThan">
       <formula>40</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="104" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="49" priority="50" operator="greaterThan">
       <formula>80</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F10">
-    <cfRule type="cellIs" dxfId="44" priority="42" operator="lessThan">
+    <cfRule type="cellIs" dxfId="48" priority="24" operator="lessThan">
       <formula>30</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="43" operator="lessThan">
+    <cfRule type="cellIs" dxfId="47" priority="25" operator="lessThan">
       <formula>50</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="44" operator="lessThan">
+    <cfRule type="cellIs" dxfId="46" priority="26" operator="lessThan">
       <formula>80</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="45" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="45" priority="27" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="46" operator="lessThan">
+    <cfRule type="cellIs" dxfId="44" priority="28" operator="lessThan">
       <formula>39</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="47" operator="lessThan">
+    <cfRule type="cellIs" dxfId="43" priority="29" operator="lessThan">
       <formula>40</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="48" operator="lessThan">
+    <cfRule type="cellIs" dxfId="42" priority="30" operator="lessThan">
       <formula>50</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="49" operator="lessThan">
+    <cfRule type="cellIs" dxfId="41" priority="31" operator="lessThan">
       <formula>40</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="50" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="40" priority="32" operator="greaterThan">
       <formula>80</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12">
-    <cfRule type="cellIs" dxfId="35" priority="24" operator="lessThan">
+    <cfRule type="cellIs" dxfId="39" priority="15" operator="lessThan">
       <formula>30</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="25" operator="lessThan">
+    <cfRule type="cellIs" dxfId="38" priority="16" operator="lessThan">
       <formula>50</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="26" operator="lessThan">
+    <cfRule type="cellIs" dxfId="37" priority="17" operator="lessThan">
       <formula>80</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="27" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="36" priority="18" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="28" operator="lessThan">
+    <cfRule type="cellIs" dxfId="35" priority="19" operator="lessThan">
       <formula>39</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="29" operator="lessThan">
+    <cfRule type="cellIs" dxfId="34" priority="20" operator="lessThan">
       <formula>40</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="30" operator="lessThan">
+    <cfRule type="cellIs" dxfId="33" priority="21" operator="lessThan">
       <formula>50</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="31" operator="lessThan">
+    <cfRule type="cellIs" dxfId="32" priority="22" operator="lessThan">
       <formula>40</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="32" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="31" priority="23" operator="greaterThan">
       <formula>80</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12">
-    <cfRule type="cellIs" dxfId="26" priority="51" operator="lessThan">
+    <cfRule type="cellIs" dxfId="30" priority="33" operator="lessThan">
       <formula>30</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="52" operator="lessThan">
+    <cfRule type="cellIs" dxfId="29" priority="34" operator="lessThan">
       <formula>50</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="53" operator="lessThan">
+    <cfRule type="cellIs" dxfId="28" priority="35" operator="lessThan">
       <formula>80</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="54" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="27" priority="36" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="55" operator="lessThan">
+    <cfRule type="cellIs" dxfId="26" priority="37" operator="lessThan">
       <formula>39</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="56" operator="lessThan">
+    <cfRule type="cellIs" dxfId="25" priority="38" operator="lessThan">
       <formula>40</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="57" operator="lessThan">
+    <cfRule type="cellIs" dxfId="24" priority="39" operator="lessThan">
       <formula>50</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="58" operator="lessThan">
+    <cfRule type="cellIs" dxfId="23" priority="40" operator="lessThan">
       <formula>40</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="59" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="22" priority="41" operator="greaterThan">
       <formula>80</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H10 H12">
-    <cfRule type="cellIs" dxfId="17" priority="15" operator="lessThan">
+    <cfRule type="cellIs" dxfId="21" priority="6" operator="lessThan">
       <formula>30</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="16" operator="lessThan">
+    <cfRule type="cellIs" dxfId="20" priority="7" operator="lessThan">
       <formula>50</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="17" operator="lessThan">
+    <cfRule type="cellIs" dxfId="19" priority="8" operator="lessThan">
       <formula>80</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="18" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="18" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="19" operator="lessThan">
+    <cfRule type="cellIs" dxfId="17" priority="10" operator="lessThan">
       <formula>39</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="20" operator="lessThan">
+    <cfRule type="cellIs" dxfId="16" priority="11" operator="lessThan">
       <formula>40</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="21" operator="lessThan">
+    <cfRule type="cellIs" dxfId="15" priority="12" operator="lessThan">
       <formula>50</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="22" operator="lessThan">
+    <cfRule type="cellIs" dxfId="14" priority="13" operator="lessThan">
       <formula>40</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="23" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="13" priority="14" operator="greaterThan">
       <formula>80</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H10 H12">
-    <cfRule type="cellIs" dxfId="8" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="12" priority="1" operator="greaterThan">
       <formula>20</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="11" priority="2" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="10" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="9" priority="4" operator="greaterThan">
       <formula>-1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="8" priority="5" operator="greaterThan">
       <formula>20</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3156,10 +3306,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3169,16 +3319,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="9" t="s">
         <v>24</v>
       </c>
     </row>
@@ -3198,7 +3348,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="10" t="s">
         <v>18</v>
       </c>
       <c r="B3" s="4">
@@ -3208,61 +3358,61 @@
         <v>50</v>
       </c>
       <c r="D3" s="4">
-        <f t="shared" ref="D3:D8" si="0">C3*B3/100</f>
+        <f t="shared" ref="D3:D9" si="0">C3*B3/100</f>
         <v>2.5</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
-        <v>19</v>
+      <c r="A4" s="10" t="s">
+        <v>20</v>
       </c>
       <c r="B4" s="4">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C4" s="4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D4" s="4">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f>C4*B4/100</f>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="4">
         <v>20</v>
-      </c>
-      <c r="B5" s="4">
-        <v>40</v>
       </c>
       <c r="C5" s="4">
         <v>0</v>
       </c>
       <c r="D5" s="4">
-        <f t="shared" si="0"/>
+        <f>C5*B5/100</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
-        <v>21</v>
+      <c r="A6" s="7" t="s">
+        <v>19</v>
       </c>
       <c r="B6" s="4">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C6" s="4">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="D6" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" ref="D6" si="1">C6*B6/100</f>
+        <v>4.5</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
-        <v>22</v>
+      <c r="A7" s="10" t="s">
+        <v>25</v>
       </c>
       <c r="B7" s="4">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C7" s="4">
         <v>0</v>
@@ -3273,8 +3423,8 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
-        <v>23</v>
+      <c r="A8" s="10" t="s">
+        <v>22</v>
       </c>
       <c r="B8" s="4">
         <v>10</v>
@@ -3287,23 +3437,52 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" s="1" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="4">
+        <v>10</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0</v>
+      </c>
+      <c r="D9" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" s="1" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="4">
-        <f>SUM(B2:B8)</f>
+      <c r="B11" s="4">
+        <f>SUM(B2:B9)</f>
         <v>100</v>
       </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4">
-        <f t="shared" ref="D10" si="1">SUM(D2:D8)</f>
-        <v>8.5</v>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4">
+        <f t="shared" ref="D11" si="2">SUM(D2:D9)</f>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C2:C8">
+  <conditionalFormatting sqref="C7:C9 C2:C5">
+    <cfRule type="cellIs" dxfId="7" priority="5" operator="greaterThan">
+      <formula>80</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="6" operator="greaterThan">
+      <formula>60</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="7" operator="greaterThan">
+      <formula>30</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="8" operator="greaterThan">
+      <formula>-1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C6">
     <cfRule type="cellIs" dxfId="3" priority="1" operator="greaterThan">
       <formula>80</formula>
     </cfRule>

--- a/progress_totale.xlsx
+++ b/progress_totale.xlsx
@@ -11,9 +11,6 @@
     <sheet name="Memoire" sheetId="1" r:id="rId2"/>
     <sheet name="Experimentation" sheetId="3" r:id="rId3"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId4"/>
-  </externalReferences>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
@@ -163,13 +160,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -226,11 +223,11 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -852,10 +849,10 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>Totale!$B$2:$B$7</c:f>
+              <c:f>Totale!$B$2:$B$8</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>44978</c:v>
                 </c:pt>
@@ -872,17 +869,20 @@
                   <c:v>45026</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>45036</c:v>
+                  <c:v>45032</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45039</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Totale!$D$2:$D$7</c:f>
+              <c:f>Totale!$D$2:$D$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -899,6 +899,9 @@
                   <c:v>32.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>50</c:v>
                 </c:pt>
               </c:numCache>
@@ -921,10 +924,10 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>Totale!$B$2:$B$7</c:f>
+              <c:f>Totale!$B$2:$B$8</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>44978</c:v>
                 </c:pt>
@@ -941,17 +944,20 @@
                   <c:v>45026</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>45036</c:v>
+                  <c:v>45032</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45039</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Totale!$C$2:$C$7</c:f>
+              <c:f>Totale!$C$2:$C$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -968,6 +974,9 @@
                   <c:v>25.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>50</c:v>
                 </c:pt>
               </c:numCache>
@@ -982,11 +991,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="102814464"/>
-        <c:axId val="102816000"/>
+        <c:axId val="96807936"/>
+        <c:axId val="96920320"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="102814464"/>
+        <c:axId val="96807936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -996,14 +1005,14 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102816000"/>
+        <c:crossAx val="96920320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="102816000"/>
+        <c:axId val="96920320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1014,7 +1023,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102814464"/>
+        <c:crossAx val="96807936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1065,7 +1074,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Totale!$K$1</c:f>
+              <c:f>Totale!$K$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1076,48 +1085,48 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>Totale!$I$2:$I$7</c:f>
+              <c:f>Totale!$I$3:$I$8</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>44978</c:v>
+                  <c:v>45007</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>45007</c:v>
+                  <c:v>45018</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>45018</c:v>
+                  <c:v>45024</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>45024</c:v>
+                  <c:v>45028</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>45026</c:v>
+                  <c:v>45032</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>45036</c:v>
+                  <c:v>45039</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Totale!$K$2:$K$7</c:f>
+              <c:f>Totale!$K$3:$K$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5</c:v>
+                  <c:v>7.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>7.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.5</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>12</c:v>
@@ -1134,7 +1143,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Totale!$J$1</c:f>
+              <c:f>Totale!$J$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1145,34 +1154,34 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>Totale!$I$2:$I$7</c:f>
+              <c:f>Totale!$I$3:$I$8</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>44978</c:v>
+                  <c:v>45007</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>45007</c:v>
+                  <c:v>45018</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>45018</c:v>
+                  <c:v>45024</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>45024</c:v>
+                  <c:v>45028</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>45026</c:v>
+                  <c:v>45032</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>45036</c:v>
+                  <c:v>45039</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Totale!$J$2:$J$7</c:f>
+              <c:f>Totale!$J$3:$J$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1183,10 +1192,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>7.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>7.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>7.5</c:v>
@@ -1206,11 +1215,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="102853632"/>
-        <c:axId val="102867712"/>
+        <c:axId val="72820224"/>
+        <c:axId val="72821760"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="102853632"/>
+        <c:axId val="72820224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1220,14 +1229,14 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102867712"/>
+        <c:crossAx val="72821760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="102867712"/>
+        <c:axId val="72821760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1238,7 +1247,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102853632"/>
+        <c:crossAx val="72820224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1369,7 +1378,7 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.5</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>4</c:v>
@@ -1483,7 +1492,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>32.5</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>50</c:v>
@@ -1501,11 +1510,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="102976896"/>
-        <c:axId val="103003264"/>
+        <c:axId val="71800704"/>
+        <c:axId val="71802240"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="102976896"/>
+        <c:axId val="71800704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1514,7 +1523,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="103003264"/>
+        <c:crossAx val="71802240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1522,7 +1531,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="103003264"/>
+        <c:axId val="71802240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1533,7 +1542,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102976896"/>
+        <c:crossAx val="71800704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1666,7 +1675,7 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>78.571428571428569</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>66.666666666666657</c:v>
@@ -1718,7 +1727,7 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>55.000000000000007</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>40</c:v>
@@ -1739,11 +1748,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="103017472"/>
-        <c:axId val="105788160"/>
+        <c:axId val="49826048"/>
+        <c:axId val="49836032"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="103017472"/>
+        <c:axId val="49826048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1753,7 +1762,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="105788160"/>
+        <c:crossAx val="49836032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1761,7 +1770,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="105788160"/>
+        <c:axId val="49836032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1791,7 +1800,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="103017472"/>
+        <c:crossAx val="49826048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1996,11 +2005,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="105822464"/>
-        <c:axId val="105832448"/>
+        <c:axId val="49869952"/>
+        <c:axId val="49871488"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="105822464"/>
+        <c:axId val="49869952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2010,7 +2019,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="105832448"/>
+        <c:crossAx val="49871488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2018,7 +2027,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="105832448"/>
+        <c:axId val="49871488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2048,7 +2057,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="105822464"/>
+        <c:crossAx val="49869952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2076,13 +2085,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>133349</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2106,13 +2115,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>161924</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>9524</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>114299</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2262,82 +2271,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Feuil1"/>
-      <sheetName val="Feuil2"/>
-      <sheetName val="Feuil3"/>
-      <sheetName val="Feuil1 (2)"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3">
-        <row r="1">
-          <cell r="D1" t="str">
-            <v>Done</v>
-          </cell>
-          <cell r="F1" t="str">
-            <v>Min pourcentage</v>
-          </cell>
-          <cell r="G1" t="str">
-            <v>Max pourcentage</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="A2">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3">
-            <v>2</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4">
-            <v>3</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5">
-            <v>4.0999999999999996</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6">
-            <v>4.3</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7">
-            <v>4.4000000000000004</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8">
-            <v>5</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9">
-            <v>6</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10">
-            <v>7</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2627,10 +2560,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2656,15 +2589,6 @@
       <c r="D1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>12</v>
-      </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
@@ -2679,14 +2603,14 @@
       <c r="D2" s="4">
         <v>0</v>
       </c>
-      <c r="I2" s="8">
-        <v>44978</v>
-      </c>
-      <c r="J2" s="4">
-        <v>0</v>
-      </c>
-      <c r="K2" s="4">
-        <v>0</v>
+      <c r="I2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -2752,7 +2676,7 @@
         <v>45024</v>
       </c>
       <c r="J5" s="4">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="K5" s="4">
         <v>7.5</v>
@@ -2772,7 +2696,7 @@
         <v>32.5</v>
       </c>
       <c r="I6" s="8">
-        <v>45026</v>
+        <v>45028</v>
       </c>
       <c r="J6" s="4">
         <v>7.5</v>
@@ -2782,23 +2706,46 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
+      <c r="A7" s="4">
+        <v>14</v>
+      </c>
       <c r="B7" s="8">
-        <v>45036</v>
+        <v>45032</v>
       </c>
       <c r="C7" s="4">
+        <v>27</v>
+      </c>
+      <c r="D7" s="4">
+        <v>34</v>
+      </c>
+      <c r="I7" s="8">
+        <v>45032</v>
+      </c>
+      <c r="J7" s="4">
+        <v>7.5</v>
+      </c>
+      <c r="K7" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="4"/>
+      <c r="B8" s="8">
+        <v>45039</v>
+      </c>
+      <c r="C8" s="4">
         <v>50</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D8" s="4">
         <v>50</v>
       </c>
-      <c r="I7" s="8">
-        <v>45036</v>
-      </c>
-      <c r="J7" s="4">
+      <c r="I8" s="8">
+        <v>45039</v>
+      </c>
+      <c r="J8" s="4">
         <v>100</v>
       </c>
-      <c r="K7" s="4">
+      <c r="K8" s="4">
         <v>100</v>
       </c>
     </row>
@@ -2813,7 +2760,7 @@
   <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2926,7 +2873,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="13">
+      <c r="A5" s="12">
         <v>4.0999999999999996</v>
       </c>
       <c r="B5" s="4">
@@ -2952,7 +2899,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="13">
+      <c r="A6" s="12">
         <v>4.3</v>
       </c>
       <c r="B6" s="4">
@@ -3004,7 +2951,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="12">
+      <c r="A8" s="15">
         <v>5</v>
       </c>
       <c r="B8" s="4">
@@ -3013,24 +2960,24 @@
       <c r="C8" s="4">
         <v>10</v>
       </c>
-      <c r="D8" s="14">
-        <v>5.5</v>
+      <c r="D8" s="13">
+        <v>7</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" si="1"/>
-        <v>55.000000000000007</v>
+        <v>70</v>
       </c>
       <c r="G8" s="5">
         <f t="shared" si="0"/>
-        <v>78.571428571428569</v>
+        <v>100</v>
       </c>
       <c r="H8" s="5">
         <f t="shared" si="2"/>
-        <v>23.571428571428562</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="13">
+      <c r="A9" s="12">
         <v>6</v>
       </c>
       <c r="B9" s="4">
@@ -3103,23 +3050,23 @@
       </c>
       <c r="D12" s="4">
         <f>SUM(D2:D10)</f>
-        <v>32.5</v>
+        <v>34</v>
       </c>
       <c r="F12" s="5">
         <f>D12/C12*100</f>
-        <v>57.017543859649123</v>
+        <v>59.649122807017541</v>
       </c>
       <c r="G12" s="5">
         <f>D12/B12*100</f>
-        <v>77.38095238095238</v>
+        <v>80.952380952380949</v>
       </c>
       <c r="H12" s="5">
         <f t="shared" si="2"/>
-        <v>20.363408521303256</v>
+        <v>21.303258145363408</v>
       </c>
     </row>
     <row r="13" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D13" s="15">
+      <c r="D13" s="14">
         <v>50</v>
       </c>
     </row>

--- a/progress_totale.xlsx
+++ b/progress_totale.xlsx
@@ -869,7 +869,7 @@
                   <c:v>45026</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>45032</c:v>
+                  <c:v>45035</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>45039</c:v>
@@ -899,7 +899,7 @@
                   <c:v>32.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>34</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>50</c:v>
@@ -944,7 +944,7 @@
                   <c:v>45026</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>45032</c:v>
+                  <c:v>45035</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>45039</c:v>
@@ -991,11 +991,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="96807936"/>
-        <c:axId val="96920320"/>
+        <c:axId val="100774272"/>
+        <c:axId val="100775808"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="96807936"/>
+        <c:axId val="100774272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1005,14 +1005,14 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="96920320"/>
+        <c:crossAx val="100775808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="96920320"/>
+        <c:axId val="100775808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1023,7 +1023,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="96807936"/>
+        <c:crossAx val="100774272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1074,7 +1074,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Totale!$K$2</c:f>
+              <c:f>Totale!$K$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1085,26 +1085,29 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>Totale!$I$3:$I$8</c:f>
+              <c:f>Totale!$I$2:$I$8</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>44978</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>45007</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>45018</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>45024</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>45028</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>45032</c:v>
+                  <c:v>45026</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>45035</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>45039</c:v>
                 </c:pt>
               </c:numCache>
@@ -1112,26 +1115,29 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Totale!$K$3:$K$8</c:f>
+              <c:f>Totale!$K$2:$K$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>7.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12</c:v>
+                  <c:v>7.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
@@ -1143,7 +1149,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Totale!$J$2</c:f>
+              <c:f>Totale!$J$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1154,26 +1160,29 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>Totale!$I$3:$I$8</c:f>
+              <c:f>Totale!$I$2:$I$8</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>44978</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>45007</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>45018</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>45024</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>45028</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>45032</c:v>
+                  <c:v>45026</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>45035</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>45039</c:v>
                 </c:pt>
               </c:numCache>
@@ -1181,10 +1190,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Totale!$J$3:$J$8</c:f>
+              <c:f>Totale!$J$2:$J$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1192,7 +1201,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>7.5</c:v>
@@ -1201,6 +1210,9 @@
                   <c:v>7.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
@@ -1215,11 +1227,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="72820224"/>
-        <c:axId val="72821760"/>
+        <c:axId val="101661312"/>
+        <c:axId val="101675392"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="72820224"/>
+        <c:axId val="101661312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1229,14 +1241,14 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="72821760"/>
+        <c:crossAx val="101675392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="72821760"/>
+        <c:axId val="101675392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1247,7 +1259,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="72820224"/>
+        <c:crossAx val="101661312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1378,7 +1390,7 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>4</c:v>
@@ -1492,7 +1504,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>34</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>50</c:v>
@@ -1510,11 +1522,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="71800704"/>
-        <c:axId val="71802240"/>
+        <c:axId val="102374400"/>
+        <c:axId val="102396672"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="71800704"/>
+        <c:axId val="102374400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1523,7 +1535,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="71802240"/>
+        <c:crossAx val="102396672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1531,7 +1543,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="71802240"/>
+        <c:axId val="102396672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1542,7 +1554,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="71800704"/>
+        <c:crossAx val="102374400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1675,7 +1687,7 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>100</c:v>
+                  <c:v>88.888888888888886</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>66.666666666666657</c:v>
@@ -1727,7 +1739,7 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>70</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>40</c:v>
@@ -1748,11 +1760,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="49826048"/>
-        <c:axId val="49836032"/>
+        <c:axId val="102411264"/>
+        <c:axId val="102703872"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="49826048"/>
+        <c:axId val="102411264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1762,7 +1774,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="49836032"/>
+        <c:crossAx val="102703872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1770,7 +1782,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="49836032"/>
+        <c:axId val="102703872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1800,7 +1812,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="49826048"/>
+        <c:crossAx val="102411264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2005,11 +2017,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="49869952"/>
-        <c:axId val="49871488"/>
+        <c:axId val="102725504"/>
+        <c:axId val="102727040"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="49869952"/>
+        <c:axId val="102725504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2019,7 +2031,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="49871488"/>
+        <c:crossAx val="102727040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2027,7 +2039,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="49871488"/>
+        <c:axId val="102727040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2057,7 +2069,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="49869952"/>
+        <c:crossAx val="102725504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2562,8 +2574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2589,6 +2601,15 @@
       <c r="D1" s="4" t="s">
         <v>9</v>
       </c>
+      <c r="I1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
@@ -2603,14 +2624,15 @@
       <c r="D2" s="4">
         <v>0</v>
       </c>
-      <c r="I2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>12</v>
+      <c r="I2" s="8">
+        <f>B2</f>
+        <v>44978</v>
+      </c>
+      <c r="J2" s="4">
+        <v>0</v>
+      </c>
+      <c r="K2" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -2650,6 +2672,7 @@
         <v>28</v>
       </c>
       <c r="I4" s="8">
+        <f>B4</f>
         <v>45018</v>
       </c>
       <c r="J4" s="4">
@@ -2673,6 +2696,7 @@
         <v>29</v>
       </c>
       <c r="I5" s="8">
+        <f t="shared" ref="I5:I8" si="0">B5</f>
         <v>45024</v>
       </c>
       <c r="J5" s="4">
@@ -2696,7 +2720,8 @@
         <v>32.5</v>
       </c>
       <c r="I6" s="8">
-        <v>45028</v>
+        <f t="shared" si="0"/>
+        <v>45026</v>
       </c>
       <c r="J6" s="4">
         <v>7.5</v>
@@ -2710,16 +2735,17 @@
         <v>14</v>
       </c>
       <c r="B7" s="8">
-        <v>45032</v>
+        <v>45035</v>
       </c>
       <c r="C7" s="4">
         <v>27</v>
       </c>
       <c r="D7" s="4">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I7" s="8">
-        <v>45032</v>
+        <f t="shared" si="0"/>
+        <v>45035</v>
       </c>
       <c r="J7" s="4">
         <v>7.5</v>
@@ -2740,6 +2766,7 @@
         <v>50</v>
       </c>
       <c r="I8" s="8">
+        <f t="shared" si="0"/>
         <v>45039</v>
       </c>
       <c r="J8" s="4">
@@ -2760,7 +2787,7 @@
   <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2955,25 +2982,25 @@
         <v>5</v>
       </c>
       <c r="B8" s="4">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C8" s="4">
         <v>10</v>
       </c>
       <c r="D8" s="13">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" si="1"/>
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="G8" s="5">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>88.888888888888886</v>
       </c>
       <c r="H8" s="5">
         <f t="shared" si="2"/>
-        <v>30</v>
+        <v>8.8888888888888857</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3042,7 +3069,7 @@
       </c>
       <c r="B12" s="4">
         <f>SUM(B2:B10)</f>
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C12" s="4">
         <f>SUM(C2:C10)</f>
@@ -3050,19 +3077,19 @@
       </c>
       <c r="D12" s="4">
         <f>SUM(D2:D10)</f>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F12" s="5">
         <f>D12/C12*100</f>
-        <v>59.649122807017541</v>
+        <v>61.403508771929829</v>
       </c>
       <c r="G12" s="5">
         <f>D12/B12*100</f>
-        <v>80.952380952380949</v>
+        <v>79.545454545454547</v>
       </c>
       <c r="H12" s="5">
         <f t="shared" si="2"/>
-        <v>21.303258145363408</v>
+        <v>18.141945773524718</v>
       </c>
     </row>
     <row r="13" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
